--- a/РАБОЧИЙ СТОЛ/23,09,25 на 29,09,25 НФ/заказ НФ 23,09,25 на 29,09,25.xlsx
+++ b/РАБОЧИЙ СТОЛ/23,09,25 на 29,09,25 НФ/заказ НФ 23,09,25 на 29,09,25.xlsx
@@ -1,30 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\23,09,25 на 29,09,25 НФ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\РАБОЧИЙ СТОЛ\23,09,25 на 29,09,25 НФ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6F0107-E765-44F4-B9F0-7615FFEF87B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB087EA-FECF-4895-8C99-27BADA8E9ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -661,7 +655,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,19 +708,21 @@
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3">
+        <v>700</v>
+      </c>
       <c r="D3" s="3"/>
       <c r="E3" s="11"/>
       <c r="F3" s="5">
         <f>C3+D3+E3</f>
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
       </c>
       <c r="K3">
         <f>F3</f>
-        <v>0</v>
+        <v>700</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -736,12 +732,14 @@
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="8">
+        <v>960</v>
+      </c>
       <c r="D4" s="8"/>
       <c r="E4" s="12"/>
       <c r="F4" s="9">
         <f>C4+D4+E4</f>
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="H4" t="s">
         <v>10</v>
@@ -751,13 +749,13 @@
       </c>
       <c r="K4">
         <f>F4*J4</f>
-        <v>0</v>
+        <v>364.8</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K5" s="13">
         <f>SUM(K3:K4)</f>
-        <v>0</v>
+        <v>1064.8</v>
       </c>
     </row>
   </sheetData>
